--- a/ExcelData/TC_PauseMembership.xlsx
+++ b/ExcelData/TC_PauseMembership.xlsx
@@ -7,10 +7,10 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10740"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1:V33"/>
+  <oleSize ref="A1:X33"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t>pauseStartDate</t>
   </si>
@@ -32,12 +32,6 @@
   </si>
   <si>
     <t>Travel</t>
-  </si>
-  <si>
-    <t>17 October 2023</t>
-  </si>
-  <si>
-    <t>Medical Reason</t>
   </si>
   <si>
     <t>15 September 2023</t>
@@ -371,17 +365,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="J9" sqref="J9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="31.140625" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" customWidth="1"/>
-    <col min="3" max="3" width="28.140625" customWidth="1"/>
+    <col min="1" max="1" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="18.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="18.75" x14ac:dyDescent="0.25">
@@ -395,30 +389,18 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ExcelData/TC_PauseMembership.xlsx
+++ b/ExcelData/TC_PauseMembership.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23505" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23415" windowHeight="10740"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="3" r:id="rId1"/>
@@ -34,10 +34,10 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>15 September 2023</t>
-  </si>
-  <si>
     <t>30 September 2023</t>
+  </si>
+  <si>
+    <t>20 September 2023</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +391,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>

--- a/ExcelData/TC_PauseMembership.xlsx
+++ b/ExcelData/TC_PauseMembership.xlsx
@@ -37,7 +37,7 @@
     <t>30 September 2023</t>
   </si>
   <si>
-    <t>20 September 2023</t>
+    <t>25 September 2023</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/ExcelData/TC_PauseMembership.xlsx
+++ b/ExcelData/TC_PauseMembership.xlsx
@@ -34,10 +34,10 @@
     <t>Travel</t>
   </si>
   <si>
-    <t>30 September 2023</t>
-  </si>
-  <si>
     <t>25 September 2023</t>
+  </si>
+  <si>
+    <t>30 October 2023</t>
   </si>
 </sst>
 </file>
@@ -368,7 +368,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -391,10 +391,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>5</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>4</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>3</v>
